--- a/documents/画像/ボタン表.xlsx
+++ b/documents/画像/ボタン表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="820" documentId="8_{4AD3DE6E-7D42-49A8-880E-BB51FC0A381F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{766CA235-36DE-49A4-8CBD-CAB61C537DE3}"/>
+  <xr:revisionPtr revIDLastSave="821" documentId="8_{4AD3DE6E-7D42-49A8-880E-BB51FC0A381F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37624884-4049-47CC-A4E6-C3E9AA07316D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F628E30D-EA3E-4E58-B148-8596A6935064}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2567,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16109CC-3EF7-446A-A233-000E8D1F672E}">
   <dimension ref="C1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
